--- a/xlsx/form_j_historial.xlsx
+++ b/xlsx/form_j_historial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F54EA-DC3A-4111-A919-4539028DA062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341846B-C119-434C-A73E-6EDA05659FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -487,9 +487,6 @@
     <t>assoc_name</t>
   </si>
   <si>
-    <t>Outra associação (não está na lista)</t>
-  </si>
-  <si>
     <t>name_id_key</t>
   </si>
   <si>
@@ -622,6 +619,9 @@
 Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
+    <t>"Novo Madal"</t>
+  </si>
+  <si>
     <t>search('enum_names_madal')</t>
   </si>
   <si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
-  </si>
-  <si>
-    <t>"Novo Madal"</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1921,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,10 +2034,10 @@
         <v>83</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -2059,7 +2056,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2"/>
       <c r="L8" s="36" t="s">
@@ -2074,7 +2071,7 @@
         <v>92</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2085,7 +2082,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -2102,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="57"/>
     </row>
@@ -2128,13 +2125,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>91</v>
@@ -2256,13 +2253,13 @@
     </row>
     <row r="22" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J22" s="46" t="s">
         <v>22</v>
@@ -2332,7 +2329,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>38</v>
@@ -2453,7 +2450,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>119</v>
@@ -2462,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35" s="11"/>
       <c r="J35" s="21" t="s">
@@ -2538,7 +2535,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,15 +2690,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="50">
-        <v>1</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>135</v>
-      </c>
+      <c r="A18" s="48"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="48"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
@@ -2713,10 +2704,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>136</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5861,25 +5852,25 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B584" s="53"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B585" s="53"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B586" s="53"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B587" s="53"/>
     </row>
@@ -5888,19 +5879,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B589" s="53"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B590" s="53"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B591" s="53"/>
     </row>
@@ -5924,67 +5915,67 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B596" s="53"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B597" s="53"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B598" s="53"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B599" s="53"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B600" s="53"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B601" s="53"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B602" s="53"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B603" s="53"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B604" s="53"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B605" s="53"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B606" s="53"/>
     </row>
@@ -5993,13 +5984,13 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B608" s="53"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B609" s="53"/>
     </row>
@@ -6008,25 +5999,25 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B611" s="53"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B612" s="53"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B613" s="53"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B614" s="53"/>
     </row>
@@ -6035,31 +6026,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B616" s="53"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B617" s="53"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B618" s="53"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B619" s="53"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B620" s="53"/>
     </row>
@@ -6068,131 +6059,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B622" s="53"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B623" s="53"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B626" s="53"/>
       <c r="C626" s="54"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B627" s="53"/>
       <c r="C627" s="54"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B628" s="53"/>
       <c r="C628" s="54"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B629" s="53"/>
       <c r="C629" s="54"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B630" s="53"/>
       <c r="C630" s="54"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B631" s="53"/>
       <c r="C631" s="54"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B632" s="53"/>
       <c r="C632" s="54"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B633" s="53"/>
       <c r="C633" s="54"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B634" s="53"/>
       <c r="C634" s="54"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B635" s="53"/>
       <c r="C635" s="54"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B636" s="53"/>
       <c r="C636" s="54"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B637" s="53"/>
       <c r="C637" s="54"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B638" s="53"/>
       <c r="C638" s="54"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B639" s="53"/>
       <c r="C639" s="54"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B640" s="53"/>
       <c r="C640" s="54"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B641" s="53"/>
       <c r="C641" s="54"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B642" s="53"/>
       <c r="C642" s="54"/>
@@ -6204,168 +6195,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B644" s="55"/>
       <c r="C644" s="54"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B645" s="55"/>
       <c r="C645" s="54"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B647" s="53"/>
       <c r="C647" s="54"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B648" s="53"/>
       <c r="C648" s="54"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B649" s="53"/>
       <c r="C649" s="54"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B650" s="53"/>
       <c r="C650" s="54"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B651" s="53"/>
       <c r="C651" s="54"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B652" s="53"/>
       <c r="C652" s="54"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B653" s="53"/>
       <c r="C653" s="54"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B654" s="53"/>
       <c r="C654" s="54"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B655" s="53"/>
       <c r="C655" s="54"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B656" s="53"/>
       <c r="C656" s="54"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B657" s="53"/>
       <c r="C657" s="54"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B658" s="53"/>
       <c r="C658" s="54"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B659" s="53"/>
       <c r="C659" s="54"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B660" s="53"/>
       <c r="C660" s="54"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B661" s="53"/>
       <c r="C661" s="54"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B662" s="53"/>
       <c r="C662" s="54"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B663" s="53"/>
       <c r="C663" s="54"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B664" s="53"/>
       <c r="C664" s="54"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B665" s="53"/>
       <c r="C665" s="54"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B668" s="53"/>
       <c r="C668" s="54"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B669" s="53"/>
       <c r="C669" s="54"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B670" s="53"/>
       <c r="C670" s="54"/>
@@ -6382,483 +6373,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B673" s="53"/>
       <c r="C673" s="54"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B674" s="53"/>
       <c r="C674" s="54"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B675" s="53"/>
       <c r="C675" s="54"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B676" s="53"/>
       <c r="C676" s="54"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B677" s="53"/>
       <c r="C677" s="54"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B678" s="53"/>
       <c r="C678" s="54"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B679" s="53"/>
       <c r="C679" s="54"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B680" s="53"/>
       <c r="C680" s="54"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B681" s="53"/>
       <c r="C681" s="54"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B682" s="53"/>
       <c r="C682" s="54"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B684" s="53"/>
       <c r="C684" s="54"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B685" s="53"/>
       <c r="C685" s="54"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B686" s="53"/>
       <c r="C686" s="54"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B687" s="53"/>
       <c r="C687" s="54"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B688" s="53"/>
       <c r="C688" s="54"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B689" s="53"/>
       <c r="C689" s="54"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B690" s="53"/>
       <c r="C690" s="54"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B691" s="53"/>
       <c r="C691" s="54"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B692" s="53"/>
       <c r="C692" s="54"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B693" s="53"/>
       <c r="C693" s="54"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B694" s="53"/>
       <c r="C694" s="54"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B696" s="53"/>
       <c r="C696" s="54"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B697" s="53"/>
       <c r="C697" s="54"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B698" s="53"/>
       <c r="C698" s="54"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B699" s="53"/>
       <c r="C699" s="54"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B700" s="53"/>
       <c r="C700" s="54"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B701" s="53"/>
       <c r="C701" s="54"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B702" s="53"/>
       <c r="C702" s="54"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B703" s="53"/>
       <c r="C703" s="54"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B704" s="53"/>
       <c r="C704" s="54"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B705" s="53"/>
       <c r="C705" s="54"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B706" s="53"/>
       <c r="C706" s="54"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B707" s="53"/>
       <c r="C707" s="54"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B709" s="53"/>
       <c r="C709" s="54"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B710" s="53"/>
       <c r="C710" s="54"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B711" s="53"/>
       <c r="C711" s="54"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B712" s="53"/>
       <c r="C712" s="54"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B714" s="53"/>
       <c r="C714" s="54"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B715" s="53"/>
       <c r="C715" s="54"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B716" s="53"/>
       <c r="C716" s="54"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B717" s="53"/>
       <c r="C717" s="54"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B718" s="53"/>
       <c r="C718" s="54"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B719" s="53"/>
       <c r="C719" s="54"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B720" s="53"/>
       <c r="C720" s="54"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B721" s="53"/>
       <c r="C721" s="54"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B722" s="53"/>
       <c r="C722" s="54"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B723" s="53"/>
       <c r="C723" s="54"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B724" s="53"/>
       <c r="C724" s="54"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B725" s="53"/>
       <c r="C725" s="54"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B726" s="53"/>
       <c r="C726" s="54"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B727" s="53"/>
       <c r="C727" s="54"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B728" s="53"/>
       <c r="C728" s="54"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B729" s="53"/>
       <c r="C729" s="54"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B730" s="53"/>
       <c r="C730" s="54"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B731" s="53"/>
       <c r="C731" s="54"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B732" s="53"/>
       <c r="C732" s="54"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B733" s="53"/>
       <c r="C733" s="54"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B734" s="53"/>
       <c r="C734" s="54"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B735" s="53"/>
       <c r="C735" s="54"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B736" s="53"/>
       <c r="C736" s="54"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B737" s="53"/>
       <c r="C737" s="54"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B738" s="53"/>
       <c r="C738" s="54"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B739" s="53"/>
       <c r="C739" s="54"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B740" s="53"/>
       <c r="C740" s="54"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B742" s="53"/>
       <c r="C742" s="54"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B743" s="53"/>
       <c r="C743" s="54"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B744" s="53"/>
       <c r="C744" s="54"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B745" s="53"/>
       <c r="C745" s="54"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B746" s="53"/>
       <c r="C746" s="54"/>
@@ -6870,63 +6861,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B748" s="53"/>
       <c r="C748" s="54"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B749" s="53"/>
       <c r="C749" s="54"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B750" s="53"/>
       <c r="C750" s="54"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B751" s="53"/>
       <c r="C751" s="54"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B752" s="53"/>
       <c r="C752" s="54"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B753" s="53"/>
       <c r="C753" s="54"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B754" s="53"/>
       <c r="C754" s="54"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B755" s="53"/>
       <c r="C755" s="54"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B756" s="53"/>
       <c r="C756" s="54"/>
@@ -6938,112 +6929,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B758" s="53"/>
       <c r="C758" s="54"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B759" s="53"/>
       <c r="C759" s="54"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B760" s="53"/>
       <c r="C760" s="54"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B761" s="53"/>
       <c r="C761" s="54"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B762" s="53"/>
       <c r="C762" s="54"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B763" s="53"/>
       <c r="C763" s="54"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B764" s="53"/>
       <c r="C764" s="54"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B765" s="53"/>
       <c r="C765" s="54"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B766" s="53"/>
       <c r="C766" s="54"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B767" s="53"/>
       <c r="C767" s="54"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B768" s="53"/>
       <c r="C768" s="54"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B769" s="53"/>
       <c r="C769" s="54"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B770" s="53"/>
       <c r="C770" s="54"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B771" s="53"/>
       <c r="C771" s="54"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B772" s="53"/>
       <c r="C772" s="54"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B773" s="53"/>
       <c r="C773" s="54"/>
@@ -7055,147 +7046,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B775" s="53"/>
       <c r="C775" s="54"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B776" s="53"/>
       <c r="C776" s="54"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B777" s="53"/>
       <c r="C777" s="54"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B778" s="53"/>
       <c r="C778" s="54"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B779" s="53"/>
       <c r="C779" s="54"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B780" s="53"/>
       <c r="C780" s="54"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B781" s="53"/>
       <c r="C781" s="54"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B782" s="53"/>
       <c r="C782" s="54"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B783" s="53"/>
       <c r="C783" s="54"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B784" s="53"/>
       <c r="C784" s="54"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B785" s="53"/>
       <c r="C785" s="54"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B786" s="53"/>
       <c r="C786" s="54"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B787" s="53"/>
       <c r="C787" s="54"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B788" s="53"/>
       <c r="C788" s="54"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B789" s="53"/>
       <c r="C789" s="54"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B790" s="53"/>
       <c r="C790" s="54"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B791" s="53"/>
       <c r="C791" s="54"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B792" s="53"/>
       <c r="C792" s="54"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B793" s="53"/>
       <c r="C793" s="54"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B794" s="53"/>
       <c r="C794" s="54"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B795" s="53"/>
       <c r="C795" s="54"/>
@@ -7207,14 +7198,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B797" s="53"/>
       <c r="C797" s="54"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B798" s="53"/>
       <c r="C798" s="54"/>
@@ -7226,21 +7217,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B800" s="53"/>
       <c r="C800" s="54"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B801" s="53"/>
       <c r="C801" s="54"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B803" s="53"/>
       <c r="C803" s="54"/>
@@ -7250,7 +7241,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B804" s="53"/>
       <c r="C804" s="54"/>
@@ -7260,7 +7251,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B805" s="53"/>
       <c r="C805" s="54"/>
@@ -7270,7 +7261,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B806" s="53"/>
       <c r="C806" s="54"/>
@@ -7280,7 +7271,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B807" s="53"/>
       <c r="C807" s="54"/>
@@ -7290,7 +7281,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B808" s="53"/>
       <c r="C808" s="54"/>
@@ -7300,7 +7291,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B809" s="53"/>
       <c r="C809" s="54"/>
@@ -7310,7 +7301,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B810" s="53"/>
       <c r="C810" s="54"/>
@@ -7320,7 +7311,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B811" s="53"/>
       <c r="C811" s="54"/>
@@ -7330,7 +7321,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B812" s="53"/>
       <c r="C812" s="54"/>
@@ -7340,84 +7331,84 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B814" s="53"/>
       <c r="C814" s="54"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B815" s="53"/>
       <c r="C815" s="54"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B816" s="53"/>
       <c r="C816" s="54"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B817" s="53"/>
       <c r="C817" s="54"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B818" s="53"/>
       <c r="C818" s="54"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B819" s="53"/>
       <c r="C819" s="54"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B820" s="53"/>
       <c r="C820" s="54"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B822" s="53"/>
       <c r="C822" s="54"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B823" s="53"/>
       <c r="C823" s="54"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B824" s="53"/>
       <c r="C824" s="54"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B825" s="53"/>
       <c r="C825" s="54"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B826" s="53"/>
       <c r="C826" s="54"/>
@@ -7480,42 +7471,42 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B837" s="53"/>
       <c r="C837" s="56"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B838" s="53"/>
       <c r="C838" s="54"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B839" s="53"/>
       <c r="C839" s="54"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B840" s="53"/>
       <c r="C840" s="54"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B842" s="53"/>
       <c r="C842" s="54"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B843" s="53"/>
       <c r="C843" s="54"/>
@@ -7531,7 +7522,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7555,7 +7546,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>25</v>
@@ -7569,7 +7560,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="58">
-        <v>202009211</v>
+        <v>202101081</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>181</v>
